--- a/DATA/student_unavailability.xlsx
+++ b/DATA/student_unavailability.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,37 +462,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Xavier Williams</t>
+          <t>Matthew Griffith</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45725.38888888889</v>
+        <v>45725.61111111111</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45725.43055555555</v>
+        <v>45725.65277777778</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Catherine Young</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45725.47569444445</v>
+        <v>45725.39930555555</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45725.51736111111</v>
+        <v>45725.44097222222</v>
       </c>
     </row>
     <row r="4">
@@ -503,94 +499,102 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45725.61111111111</v>
+        <v>45725.63541666666</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45725.65277777778</v>
+        <v>45725.67708333334</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Donald Owens</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45725.63541666666</v>
+        <v>45725.42708333334</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45725.67708333334</v>
+        <v>45725.46875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kelly Norman</t>
+          <t>Leslie Cole</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45725.4375</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45725.47916666666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Robert Jimenez</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45725.60416666666</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>45725.64583333334</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>45725.6875</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45725.40625</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45725.44791666666</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ashley Small</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
+        <v>45725.39930555555</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45725.44097222222</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45725.47916666666</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>45725.52083333334</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45725.5625</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dr. Eddie Monroe</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>45725.52430555555</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>45725.56597222222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Michelle Odonnell</t>
+          <t>Charles Murphy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,130 +603,126 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45725.58680555555</v>
+        <v>45725.47569444445</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45725.62847222222</v>
+        <v>45725.51736111111</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brandon Martin</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45725.53819444445</v>
+        <v>45725.47569444445</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45725.57986111111</v>
+        <v>45725.51736111111</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Rebecca Wilson</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45725.44791666666</v>
+        <v>45725.52430555555</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45725.48958333334</v>
+        <v>45725.56597222222</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tammy Martinez</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45725.65972222222</v>
+        <v>45725.59722222222</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45725.70138888889</v>
+        <v>45725.63888888889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45725.57291666666</v>
+        <v>45725.47222222222</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45725.61458333334</v>
+        <v>45725.51388888889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Joshua Mason</t>
+          <t>Jeffrey Wood</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45725.5625</v>
+        <v>45725.4375</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45725.60416666666</v>
+        <v>45725.47916666666</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Megan Bishop</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45725.65625</v>
+        <v>45725.61111111111</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45725.69791666666</v>
+        <v>45725.65277777778</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Barbara Scott</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45725.60763888889</v>
+        <v>45725.53819444445</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45725.64930555555</v>
+        <v>45725.57986111111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pam Potts</t>
+          <t>Robert Sanders</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -731,24 +731,38 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45725.61805555555</v>
+        <v>45725.61458333334</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45725.65972222222</v>
+        <v>45725.65625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45725.44791666666</v>
+        <v>45725.50347222222</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45725.48958333334</v>
+        <v>45725.54513888889</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45725.64583333334</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45725.6875</v>
       </c>
     </row>
   </sheetData>
